--- a/data/datasetFinal.xlsx
+++ b/data/datasetFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriandubois/Documents/GitHub/TFE_horaires_FPMS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriandubois/Documents/GitHub/Horraire-Polytech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E3F69-26A4-0F44-8BA3-ECD31EDFB978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872A3FD7-AA7C-114B-B4E3-0597D00F7C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="15960" tabRatio="589" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
   </bookViews>
@@ -2962,10 +2962,10 @@
   <dimension ref="A1:AI125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2975,14 +2975,15 @@
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="11" customWidth="1"/>
-    <col min="8" max="9" width="13.1640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1640625" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="47.6640625" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
     <col min="15" max="16" width="12.1640625" customWidth="1"/>
     <col min="17" max="17" width="6.83203125" customWidth="1"/>
     <col min="18" max="18" width="14.1640625" customWidth="1"/>

--- a/data/datasetFinal.xlsx
+++ b/data/datasetFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriandubois/Documents/GitHub/Horraire-Polytech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{872A3FD7-AA7C-114B-B4E3-0597D00F7C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0ED488-BA3E-4E51-8488-94B25DD8153E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE8CC8-66C5-A347-B29D-A32AC732F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="15960" tabRatio="589" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="15960" tabRatio="589" activeTab="2" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
   </bookViews>
   <sheets>
     <sheet name="TFE" sheetId="11" r:id="rId1"/>
@@ -98,393 +98,393 @@
   <commentList>
     <comment ref="L2" authorId="0" shapeId="0" xr:uid="{6C2CD4D0-E078-4831-B676-15D97E57640C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Leplat V n'est plus à la FPMs</t>
       </text>
     </comment>
     <comment ref="M2" authorId="1" shapeId="0" xr:uid="{20E3007F-5E15-4D73-B96F-54EC9CFE35D3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.12,Ho.03,Ho.24,Ho.23</t>
       </text>
     </comment>
     <comment ref="L3" authorId="2" shapeId="0" xr:uid="{7FACE5CD-1E21-431B-ADE8-9A80FB3464A7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Leplat V et Gmys J ne sont plus à la FPMs</t>
       </text>
     </comment>
     <comment ref="M3" authorId="3" shapeId="0" xr:uid="{3FF36CB9-105D-4848-947C-42F8394E9478}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.22,Ho.23</t>
       </text>
     </comment>
     <comment ref="M6" authorId="4" shapeId="0" xr:uid="{4F20EB58-7358-4222-9383-D7FA9FE6E139}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.23,Ho.03</t>
       </text>
     </comment>
     <comment ref="J7" authorId="5" shapeId="0" xr:uid="{0525AB4F-249B-4E79-A82E-99B81C5527A9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Les cours d'anglais prennent la forme de séances d'exercice (groupes scindés)</t>
       </text>
     </comment>
     <comment ref="M7" authorId="6" shapeId="0" xr:uid="{BCB03217-CE4C-4E6C-AEDA-248901A4B196}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     local EpB5.CLVSR3 retiré pour avoir 3 profs et 3 locaux</t>
       </text>
     </comment>
     <comment ref="M8" authorId="7" shapeId="0" xr:uid="{CB3FE8FB-50AE-4A53-BA63-63361272B7D6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.12,Ho.03</t>
       </text>
     </comment>
     <comment ref="M11" authorId="8" shapeId="0" xr:uid="{BFD62DA8-0F0E-4E7A-9E7F-36B3DA86E218}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.11,Ho.26</t>
       </text>
     </comment>
     <comment ref="M14" authorId="9" shapeId="0" xr:uid="{A06C4B14-D945-4B22-8661-E70AC72F0EB5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.12,Ho.03</t>
       </text>
     </comment>
     <comment ref="G16" authorId="10" shapeId="0" xr:uid="{9D29D681-449E-4661-B562-18BBD0D760A8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.24</t>
       </text>
     </comment>
     <comment ref="L16" authorId="11" shapeId="0" xr:uid="{2906C59E-BE2A-4A9A-A71C-8A7C70CC2488}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Vandaele A et Leplat V ne sont pas présents aux ex</t>
       </text>
     </comment>
     <comment ref="M16" authorId="12" shapeId="0" xr:uid="{61868371-135D-4862-A620-6EE083DA8EBE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Ho.23 supprimé : Briffoteaux G est seul pour donner la séance d'ex</t>
       </text>
     </comment>
     <comment ref="J20" authorId="13" shapeId="0" xr:uid="{FDD6EA3F-92B1-4617-B1A0-F96CA827BB4A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Les cours d'anglais prennent la forme de séances d'exercice (groupes scindés)</t>
       </text>
     </comment>
     <comment ref="M20" authorId="14" shapeId="0" xr:uid="{DFC43B92-6CD8-4680-956F-074BAFB549FA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     local EpB5.CLVSC2 ajouté et affecté à Zangara G pour avoir 3 profs et 3 locaux</t>
       </text>
     </comment>
     <comment ref="M21" authorId="15" shapeId="0" xr:uid="{F74010BC-EA66-4D8A-8689-33537F63FDA7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.03,Ho.12</t>
       </text>
     </comment>
     <comment ref="L27" authorId="16" shapeId="0" xr:uid="{D817FB68-A25C-40B6-9906-FB36BEBBC5FC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Leplat V et Siebert X ne sont pas présents aux séances d'ex</t>
       </text>
     </comment>
     <comment ref="M27" authorId="17" shapeId="0" xr:uid="{E1CD1A0B-9574-4A9D-904D-4B5A364C2553}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Ho.12 supprimé car Ndjia Njike B est seul pour donner les ex</t>
       </text>
     </comment>
     <comment ref="Q30" authorId="18" shapeId="0" xr:uid="{CCF4AC35-8E12-4994-B606-FB4F6396B12A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     3h de visite inclus</t>
       </text>
     </comment>
     <comment ref="J35" authorId="19" shapeId="0" xr:uid="{253D8C83-373B-4A9E-90CA-55C502661AC0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Les cours d'anglais prennent la forme de séances d'exercice (groupes scindés)</t>
       </text>
     </comment>
     <comment ref="S38" authorId="20" shapeId="0" xr:uid="{977E3646-1FF9-4280-A438-C0348C4AEB04}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     A dédoubler ??</t>
       </text>
     </comment>
     <comment ref="G39" authorId="21" shapeId="0" xr:uid="{63D86876-6E40-4F30-B426-086EAF84EEDF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.21</t>
       </text>
     </comment>
     <comment ref="G40" authorId="22" shapeId="0" xr:uid="{86A52480-D087-48E2-A68F-88CA13FC577E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.26</t>
       </text>
     </comment>
     <comment ref="G41" authorId="23" shapeId="0" xr:uid="{271F3D01-E672-4CF9-AB33-C13382C85A06}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.05</t>
       </text>
     </comment>
     <comment ref="S41" authorId="24" shapeId="0" xr:uid="{E553E0E0-5528-4455-874A-ADBE50A06F1F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     A dédoubler ??</t>
       </text>
     </comment>
     <comment ref="G42" authorId="25" shapeId="0" xr:uid="{042F81CF-E153-4392-840A-BD66A0DFDC92}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.05</t>
       </text>
     </comment>
     <comment ref="M42" authorId="26" shapeId="0" xr:uid="{03F8F7D3-9B5B-4C1E-AB0E-4D0715180B22}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.05</t>
       </text>
     </comment>
     <comment ref="G47" authorId="27" shapeId="0" xr:uid="{D3ACD86E-6C58-44E3-A25C-09932376A77C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.25</t>
       </text>
     </comment>
     <comment ref="G48" authorId="28" shapeId="0" xr:uid="{3E9582F9-BE94-44E8-A62B-3A4726FD4A07}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.22</t>
       </text>
     </comment>
     <comment ref="L49" authorId="29" shapeId="0" xr:uid="{15F5D082-5B94-42E0-8AB4-2160F216F0E6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Leplat V n'est plus à la FPMs</t>
       </text>
     </comment>
     <comment ref="G50" authorId="30" shapeId="0" xr:uid="{CE43B02D-9099-489C-B878-807562C93DFE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.25</t>
       </text>
     </comment>
     <comment ref="L50" authorId="31" shapeId="0" xr:uid="{07373A19-B12F-4E60-BAFE-DCB27ABF7A45}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Ndjia Njike B est seul à donner les séances d'ex</t>
       </text>
     </comment>
     <comment ref="M50" authorId="32" shapeId="0" xr:uid="{7926614B-A3EE-4B33-AE04-6344C6BE9300}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.25</t>
       </text>
     </comment>
     <comment ref="G51" authorId="33" shapeId="0" xr:uid="{599E3A34-2153-49FD-98FA-CB93051875E9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.25</t>
       </text>
     </comment>
     <comment ref="M51" authorId="34" shapeId="0" xr:uid="{5AADD93A-DD1E-4752-A52B-C0EC3BB6DADD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.25</t>
       </text>
     </comment>
     <comment ref="G52" authorId="35" shapeId="0" xr:uid="{6291E774-E0C6-4AC0-B030-660247A21925}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.05</t>
       </text>
     </comment>
     <comment ref="AE53" authorId="36" shapeId="0" xr:uid="{71E7CF10-D6CD-43C0-B84C-2491CDD139D0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Visite au lieu de TP</t>
       </text>
     </comment>
     <comment ref="Q54" authorId="37" shapeId="0" xr:uid="{EEC77F58-CA80-4207-AA2B-3CFBF632D740}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Conférences avec local -&gt; considéré comme TP</t>
       </text>
     </comment>
     <comment ref="G55" authorId="38" shapeId="0" xr:uid="{07BAA986-FCB3-4BA0-8AE8-192884CFE07A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Initial : Ho.23</t>
       </text>
     </comment>
     <comment ref="Q61" authorId="39" shapeId="0" xr:uid="{41C22AE1-8EEB-4942-A4F8-2C0278476ABD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     5 TP de 4h</t>
       </text>
     </comment>
     <comment ref="AE61" authorId="40" shapeId="0" xr:uid="{D58F59AC-FCBA-4752-95D8-5056A4BA6944}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     6 visites de 4h</t>
       </text>
     </comment>
     <comment ref="L64" authorId="41" shapeId="0" xr:uid="{EBF2D25B-9148-454A-BB8C-EACE85FF695C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Leplat V n'est plus à la FPMs</t>
       </text>
     </comment>
     <comment ref="J70" authorId="42" shapeId="0" xr:uid="{BB908170-8DC4-4DD6-9C0B-E23EB3A537B6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Les cours d'anglais prennent la forme de séances d'exercice (groupes scindés)</t>
       </text>
     </comment>
     <comment ref="M70" authorId="43" shapeId="0" xr:uid="{7CA653BD-B112-4B16-8474-307EDB36370E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     local EpB5.CLVSR3 retiré pour avoir 3 profs et 3 locaux</t>
       </text>
     </comment>
     <comment ref="AD77" authorId="44" shapeId="0" xr:uid="{22A661CF-8FCB-4C81-84CF-880159F73E83}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Forum des spécialités</t>
       </text>
     </comment>
     <comment ref="J81" authorId="45" shapeId="0" xr:uid="{F3449F54-5E42-47A8-966B-97078715F890}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Les cours d'anglais prennent la forme de séances d'exercice (groupes scindés)</t>
       </text>
     </comment>
     <comment ref="AC95" authorId="46" shapeId="0" xr:uid="{AAD93BD0-3935-408B-8CF5-8917AFC95E6C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     2 journées complètes pour le créathon</t>
       </text>
     </comment>
     <comment ref="J96" authorId="47" shapeId="0" xr:uid="{A0EF2B0E-8AAC-4A30-868B-0E0482F1047D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Les cours d'anglais prennent la forme de séances d'exercice (groupes scindés)</t>
       </text>
     </comment>
     <comment ref="L108" authorId="48" shapeId="0" xr:uid="{841926D2-4B68-48AA-9EF6-7B25FDC3E914}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Leplat V n'est plus à la FPMs</t>
       </text>
     </comment>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="635">
   <si>
     <t>cursus</t>
   </si>
@@ -1425,9 +1425,6 @@
     <t>conf : debut 8</t>
   </si>
   <si>
-    <t>BA3_MECA, MA1_CHIM-SDM-SGM</t>
-  </si>
-  <si>
     <t>I-GMEC-001</t>
   </si>
   <si>
@@ -2097,9 +2094,6 @@
     <t>Demarbaix A,Dolimont A,Ducobu F,Dutoit C,Equeter L,Kugalur Palanisamy N,Riviere Lorphevre E</t>
   </si>
   <si>
-    <t>BA3_MECA,BA3_MIN,MA1_CHIM-SDM</t>
-  </si>
-  <si>
     <t>I-FLMA-002</t>
   </si>
   <si>
@@ -2175,6 +2169,78 @@
     <t>Ancia P</t>
   </si>
   <si>
+    <t>MA1_IG</t>
+  </si>
+  <si>
+    <t>I-ILIA-006</t>
+  </si>
+  <si>
+    <t>Expertises digitale et logicielle</t>
+  </si>
+  <si>
+    <t>Mamhoudi Si</t>
+  </si>
+  <si>
+    <t>I-ILIA-026</t>
+  </si>
+  <si>
+    <t>Intelligence Artificielle</t>
+  </si>
+  <si>
+    <t>Mamhoudi Sa</t>
+  </si>
+  <si>
+    <t>Cools A,Mamhoudi Sa</t>
+  </si>
+  <si>
+    <t>I-MANA-210</t>
+  </si>
+  <si>
+    <t>Stimulation de la créativité</t>
+  </si>
+  <si>
+    <t>Lardinois E</t>
+  </si>
+  <si>
+    <t>I-MANA-011</t>
+  </si>
+  <si>
+    <t>Team Building</t>
+  </si>
+  <si>
+    <t>Bette S, Duez P</t>
+  </si>
+  <si>
+    <t>I-MARO-011</t>
+  </si>
+  <si>
+    <t>Graphes et optimisation combinatoire</t>
+  </si>
+  <si>
+    <t>I-MARO-016</t>
+  </si>
+  <si>
+    <t>Streaming Data Analysis</t>
+  </si>
+  <si>
+    <t>Ho.06</t>
+  </si>
+  <si>
+    <t>Siebert X, Ndjia Njike</t>
+  </si>
+  <si>
+    <t>I-MARO-017</t>
+  </si>
+  <si>
+    <t>Ateliers de modélisation en recherche opérationnelle</t>
+  </si>
+  <si>
+    <t>I-ILIA-007</t>
+  </si>
+  <si>
+    <t>Projet d'expertises digitale et logicielle</t>
+  </si>
+  <si>
     <t>numberGroups</t>
   </si>
   <si>
@@ -2196,9 +2262,6 @@
     <t>MA1-ELEC-FS SigSys</t>
   </si>
   <si>
-    <t>MA1_IG</t>
-  </si>
-  <si>
     <t>MA1-MECA-FS CP</t>
   </si>
   <si>
@@ -2332,13 +2395,16 @@
   </si>
   <si>
     <t>1er mai</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2371,6 +2437,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2441,7 +2519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2479,6 +2557,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2503,7 +2583,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2951,52 +3031,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436D5779-576B-4D03-A998-370CA8906C1C}">
-  <dimension ref="A1:AI125"/>
+  <dimension ref="A1:AI134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
+    <sheetView zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="55.140625" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="15" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="55.1640625" customWidth="1"/>
+    <col min="21" max="21" width="20.83203125" customWidth="1"/>
     <col min="22" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" customWidth="1"/>
-    <col min="26" max="26" width="42.28515625" customWidth="1"/>
-    <col min="27" max="28" width="12.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" customWidth="1"/>
-    <col min="32" max="32" width="52.140625" customWidth="1"/>
-    <col min="33" max="33" width="39.28515625" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" customWidth="1"/>
+    <col min="26" max="26" width="42.33203125" customWidth="1"/>
+    <col min="27" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="8.5" customWidth="1"/>
+    <col min="32" max="32" width="52.1640625" customWidth="1"/>
+    <col min="33" max="33" width="39.33203125" customWidth="1"/>
+    <col min="34" max="34" width="8.5" customWidth="1"/>
+    <col min="35" max="35" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +3183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -3178,7 +3258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
@@ -3253,7 +3333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
@@ -3302,7 +3382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
@@ -3351,7 +3431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
@@ -3442,7 +3522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>35</v>
       </c>
@@ -3507,7 +3587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
@@ -3601,7 +3681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>35</v>
       </c>
@@ -3660,7 +3740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>35</v>
       </c>
@@ -3719,7 +3799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -3810,7 +3890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
@@ -3874,7 +3954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +4003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
@@ -4003,7 +4083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
@@ -4052,7 +4132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>101</v>
       </c>
@@ -4138,7 +4218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>101</v>
       </c>
@@ -4211,7 +4291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
@@ -4286,7 +4366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>101</v>
       </c>
@@ -4358,7 +4438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>101</v>
       </c>
@@ -4423,7 +4503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>101</v>
       </c>
@@ -4511,7 +4591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>101</v>
       </c>
@@ -4571,7 +4651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>101</v>
       </c>
@@ -4644,7 +4724,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>101</v>
       </c>
@@ -4721,7 +4801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>101</v>
       </c>
@@ -4813,7 +4893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>101</v>
       </c>
@@ -4876,7 +4956,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>101</v>
       </c>
@@ -4948,7 +5028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>159</v>
       </c>
@@ -5023,7 +5103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -5082,7 +5162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -5155,7 +5235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -5233,7 +5313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -5294,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -5352,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -5438,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -5503,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -5575,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -5650,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -5725,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>217</v>
       </c>
@@ -5800,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>217</v>
       </c>
@@ -5875,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -5947,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -6033,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>246</v>
       </c>
@@ -6091,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>246</v>
       </c>
@@ -6153,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>255</v>
       </c>
@@ -6223,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>255</v>
       </c>
@@ -6322,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>255</v>
       </c>
@@ -6392,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -6464,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -6513,9 +6593,7 @@
       <c r="P49" s="1">
         <v>12</v>
       </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
+      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -6536,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>255</v>
       </c>
@@ -6585,9 +6663,7 @@
       <c r="P50" s="1">
         <v>12</v>
       </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
+      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -6608,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>255</v>
       </c>
@@ -6692,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>283</v>
       </c>
@@ -6727,9 +6803,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1">
-        <v>0</v>
-      </c>
+      <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -6755,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>283</v>
       </c>
@@ -6790,9 +6864,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q53" s="4"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -6820,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>283</v>
       </c>
@@ -6885,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -6974,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -7046,15 +7118,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>38</v>
@@ -7097,22 +7169,22 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>38</v>
@@ -7139,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>195</v>
@@ -7169,25 +7241,25 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG58" t="s">
         <v>318</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>319</v>
       </c>
       <c r="AH58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>38</v>
@@ -7196,28 +7268,28 @@
         <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>12</v>
+      </c>
+      <c r="J59" s="1">
+        <v>12</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1">
-        <v>12</v>
-      </c>
-      <c r="J59" s="1">
-        <v>12</v>
-      </c>
-      <c r="K59" s="1">
-        <v>1</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
@@ -7244,25 +7316,25 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG59" t="s">
         <v>326</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>327</v>
       </c>
       <c r="AH59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>38</v>
@@ -7271,10 +7343,10 @@
         <v>36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
@@ -7307,22 +7379,22 @@
         <v>12</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>333</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>38</v>
@@ -7331,28 +7403,28 @@
         <v>28</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>12</v>
+      </c>
+      <c r="J61" s="1">
+        <v>12</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>12</v>
-      </c>
-      <c r="J61" s="1">
-        <v>12</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -7373,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V61" s="1">
         <v>1</v>
@@ -7400,15 +7472,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>38</v>
@@ -7417,10 +7489,10 @@
         <v>24</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="H62" s="1">
         <v>1</v>
@@ -7445,10 +7517,10 @@
         <v>1</v>
       </c>
       <c r="T62" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="U62" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="V62" s="1">
         <v>1</v>
@@ -7465,37 +7537,37 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG62" t="s">
         <v>343</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>344</v>
       </c>
       <c r="AH62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="D63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="1">
-        <v>12</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
@@ -7526,25 +7598,25 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" t="s">
         <v>349</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>350</v>
-      </c>
-      <c r="D64" t="s">
-        <v>351</v>
       </c>
       <c r="E64" s="1">
         <v>10</v>
@@ -7568,16 +7640,20 @@
         <v>1</v>
       </c>
       <c r="L64" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="O64" s="1">
+        <v>4</v>
+      </c>
+      <c r="P64" s="1">
+        <v>12</v>
+      </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -7601,18 +7677,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>35</v>
       </c>
       <c r="B65" t="s">
+        <v>353</v>
+      </c>
+      <c r="C65" t="s">
         <v>354</v>
       </c>
-      <c r="C65" t="s">
-        <v>355</v>
-      </c>
       <c r="D65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E65" s="1">
         <v>22</v>
@@ -7636,16 +7712,20 @@
         <v>2</v>
       </c>
       <c r="L65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
       </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="O65" s="1">
+        <v>4</v>
+      </c>
+      <c r="P65" s="1">
+        <v>12</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -7669,18 +7749,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>35</v>
       </c>
       <c r="B66" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" t="s">
         <v>358</v>
       </c>
-      <c r="C66" t="s">
-        <v>359</v>
-      </c>
       <c r="D66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E66" s="1">
         <v>24</v>
@@ -7694,7 +7774,9 @@
       <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>12</v>
+      </c>
       <c r="J66" s="1">
         <v>24</v>
       </c>
@@ -7710,8 +7792,12 @@
       <c r="N66" s="1">
         <v>0</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="O66" s="1">
+        <v>4</v>
+      </c>
+      <c r="P66" s="1">
+        <v>12</v>
+      </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -7735,18 +7821,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>35</v>
       </c>
       <c r="B67" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" t="s">
         <v>360</v>
       </c>
-      <c r="C67" t="s">
-        <v>361</v>
-      </c>
       <c r="D67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E67" s="1">
         <v>19</v>
@@ -7760,7 +7846,9 @@
       <c r="H67" s="1">
         <v>1</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>12</v>
+      </c>
       <c r="J67" s="1">
         <v>12</v>
       </c>
@@ -7768,16 +7856,20 @@
         <v>2</v>
       </c>
       <c r="L67" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="N67" s="1">
         <v>0</v>
       </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="O67" s="1">
+        <v>4</v>
+      </c>
+      <c r="P67" s="1">
+        <v>12</v>
+      </c>
       <c r="Q67" s="1">
         <v>9</v>
       </c>
@@ -7788,13 +7880,17 @@
         <v>4</v>
       </c>
       <c r="T67" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="U67" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
+      <c r="V67" s="1">
+        <v>7</v>
+      </c>
+      <c r="W67" s="1">
+        <v>12</v>
+      </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -7807,28 +7903,28 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AH67">
-        <f t="shared" ref="AH67:AH125" si="1">IF(E67&gt;=J67,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+        <f t="shared" ref="AH67:AH130" si="1">IF(E67&gt;=J67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>35</v>
       </c>
       <c r="B68" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" t="s">
         <v>366</v>
       </c>
-      <c r="C68" t="s">
-        <v>367</v>
-      </c>
       <c r="D68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E68" s="1">
         <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>40</v>
@@ -7836,7 +7932,9 @@
       <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>12</v>
+      </c>
       <c r="J68" s="1">
         <v>6</v>
       </c>
@@ -7844,16 +7942,20 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="O68" s="1">
+        <v>4</v>
+      </c>
+      <c r="P68" s="1">
+        <v>12</v>
+      </c>
       <c r="Q68" s="1">
         <v>9</v>
       </c>
@@ -7864,13 +7966,17 @@
         <v>4</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="V68" s="1">
+        <v>7</v>
+      </c>
+      <c r="W68" s="1">
+        <v>12</v>
+      </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
@@ -7887,18 +7993,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>35</v>
       </c>
       <c r="B69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" t="s">
         <v>372</v>
       </c>
-      <c r="C69" t="s">
-        <v>373</v>
-      </c>
       <c r="D69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E69" s="1">
         <v>24</v>
@@ -7912,7 +8018,9 @@
       <c r="H69" s="1">
         <v>1</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>12</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -7930,13 +8038,17 @@
         <v>4</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
+      <c r="V69" s="1">
+        <v>7</v>
+      </c>
+      <c r="W69" s="1">
+        <v>12</v>
+      </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -7951,22 +8063,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" t="s">
         <v>375</v>
       </c>
-      <c r="C70" t="s">
-        <v>376</v>
-      </c>
       <c r="D70" t="s">
-        <v>351</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E70" s="4"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -8013,24 +8123,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>35</v>
       </c>
       <c r="B71" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" t="s">
         <v>377</v>
       </c>
-      <c r="C71" t="s">
-        <v>378</v>
-      </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E71" s="1">
         <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>40</v>
@@ -8038,7 +8148,9 @@
       <c r="H71" s="1">
         <v>1</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>12</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -8067,25 +8179,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" t="s">
         <v>380</v>
       </c>
-      <c r="C72" t="s">
-        <v>381</v>
-      </c>
       <c r="D72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -8115,25 +8225,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>35</v>
       </c>
       <c r="B73" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" t="s">
         <v>382</v>
       </c>
-      <c r="C73" t="s">
-        <v>383</v>
-      </c>
       <c r="D73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -8163,18 +8271,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>35</v>
       </c>
       <c r="B74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" t="s">
         <v>384</v>
       </c>
-      <c r="C74" t="s">
-        <v>385</v>
-      </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E74" s="1">
         <v>20</v>
@@ -8188,7 +8296,9 @@
       <c r="H74" s="1">
         <v>1</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1">
+        <v>12</v>
+      </c>
       <c r="J74" s="1">
         <v>20</v>
       </c>
@@ -8196,16 +8306,20 @@
         <v>1</v>
       </c>
       <c r="L74" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="N74" s="1">
         <v>0</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="O74" s="1">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1">
+        <v>12</v>
+      </c>
       <c r="Q74" s="1">
         <v>24</v>
       </c>
@@ -8216,13 +8330,17 @@
         <v>4</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
+      <c r="V74" s="1">
+        <v>7</v>
+      </c>
+      <c r="W74" s="1">
+        <v>12</v>
+      </c>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -8239,25 +8357,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
+        <v>388</v>
+      </c>
+      <c r="C75" t="s">
         <v>389</v>
       </c>
-      <c r="C75" t="s">
-        <v>390</v>
-      </c>
       <c r="D75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1">
-        <v>1</v>
-      </c>
+      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -8287,18 +8403,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
       <c r="B76" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" t="s">
         <v>391</v>
       </c>
-      <c r="C76" t="s">
-        <v>392</v>
-      </c>
       <c r="D76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E76" s="1">
         <v>21</v>
@@ -8359,18 +8475,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" t="s">
         <v>393</v>
       </c>
-      <c r="C77" t="s">
-        <v>394</v>
-      </c>
       <c r="D77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -8408,24 +8524,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>101</v>
       </c>
       <c r="B78" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" t="s">
         <v>395</v>
       </c>
-      <c r="C78" t="s">
-        <v>396</v>
-      </c>
       <c r="D78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E78" s="1">
         <v>18</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>84</v>
@@ -8439,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>104</v>
@@ -8459,7 +8575,7 @@
         <v>4</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>223</v>
@@ -8480,24 +8596,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79" t="s">
+        <v>398</v>
+      </c>
+      <c r="C79" t="s">
         <v>399</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79" s="1">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D79" t="s">
-        <v>351</v>
-      </c>
-      <c r="E79" s="1">
-        <v>12</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>104</v>
@@ -8532,18 +8648,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>101</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" t="s">
         <v>402</v>
       </c>
-      <c r="C80" t="s">
-        <v>403</v>
-      </c>
       <c r="D80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E80" s="1">
         <v>18</v>
@@ -8583,10 +8699,10 @@
         <v>4</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
@@ -8603,18 +8719,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C81" t="s">
         <v>405</v>
       </c>
-      <c r="C81" t="s">
-        <v>406</v>
-      </c>
       <c r="D81" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -8630,10 +8746,10 @@
         <v>4</v>
       </c>
       <c r="L81" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="N81" s="1">
         <v>1</v>
@@ -8661,24 +8777,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>101</v>
       </c>
       <c r="B82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" t="s">
         <v>409</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>350</v>
+      </c>
+      <c r="E82" s="1">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D82" t="s">
-        <v>351</v>
-      </c>
-      <c r="E82" s="1">
-        <v>12</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>104</v>
@@ -8692,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>112</v>
@@ -8722,18 +8838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>101</v>
       </c>
       <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="s">
         <v>413</v>
       </c>
-      <c r="C83" t="s">
-        <v>414</v>
-      </c>
       <c r="D83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -8761,7 +8877,7 @@
         <v>4</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
@@ -8776,24 +8892,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>101</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C84" t="s">
         <v>416</v>
       </c>
-      <c r="C84" t="s">
-        <v>417</v>
-      </c>
       <c r="D84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E84" s="1">
         <v>22</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>104</v>
@@ -8807,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>104</v>
@@ -8827,10 +8943,10 @@
         <v>4</v>
       </c>
       <c r="T84" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="U84" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
@@ -8848,24 +8964,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>101</v>
       </c>
       <c r="B85" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" t="s">
         <v>422</v>
       </c>
-      <c r="C85" t="s">
-        <v>423</v>
-      </c>
       <c r="D85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E85" s="1">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>104</v>
@@ -8879,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>112</v>
@@ -8909,24 +9025,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>101</v>
       </c>
       <c r="B86" t="s">
+        <v>423</v>
+      </c>
+      <c r="C86" t="s">
         <v>424</v>
       </c>
-      <c r="C86" t="s">
-        <v>425</v>
-      </c>
       <c r="D86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E86" s="1">
         <v>15</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>104</v>
@@ -8940,10 +9056,10 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="N86" s="1">
         <v>0</v>
@@ -8971,18 +9087,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>101</v>
       </c>
       <c r="B87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" t="s">
         <v>429</v>
       </c>
-      <c r="C87" t="s">
-        <v>430</v>
-      </c>
       <c r="D87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -9006,10 +9122,10 @@
         <v>4</v>
       </c>
       <c r="T87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U87" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
@@ -9027,24 +9143,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>159</v>
       </c>
       <c r="B88" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>434</v>
-      </c>
       <c r="D88" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E88" s="1">
         <v>30</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>177</v>
@@ -9058,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>177</v>
@@ -9078,10 +9194,10 @@
         <v>1</v>
       </c>
       <c r="T88" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="U88" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
@@ -9099,18 +9215,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>159</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>439</v>
-      </c>
       <c r="D89" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E89" s="1">
         <v>24</v>
@@ -9119,7 +9235,7 @@
         <v>54</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -9143,7 +9259,7 @@
         <v>54</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
@@ -9161,18 +9277,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>159</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>442</v>
-      </c>
       <c r="D90" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E90" s="1">
         <v>18</v>
@@ -9223,24 +9339,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>159</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>444</v>
-      </c>
       <c r="D91" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E91" s="1">
         <v>21</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>170</v>
@@ -9254,7 +9370,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>170</v>
@@ -9274,7 +9390,7 @@
         <v>1</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U91" s="1" t="s">
         <v>170</v>
@@ -9295,24 +9411,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>159</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>448</v>
-      </c>
       <c r="D92" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E92" s="1">
         <v>36</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>148</v>
@@ -9347,18 +9463,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>159</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>182</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -9399,18 +9515,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>159</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>452</v>
-      </c>
       <c r="D94" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E94" s="1">
         <v>12</v>
@@ -9471,18 +9587,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>191</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>454</v>
-      </c>
       <c r="D95" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -9519,18 +9635,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>191</v>
       </c>
       <c r="B96" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C96" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>456</v>
-      </c>
       <c r="D96" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
@@ -9546,10 +9662,10 @@
         <v>4</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N96" s="1">
         <v>0</v>
@@ -9577,24 +9693,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>191</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>459</v>
-      </c>
       <c r="D97" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E97" s="1">
         <v>24</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>195</v>
@@ -9618,10 +9734,10 @@
         <v>6</v>
       </c>
       <c r="T97" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="U97" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
@@ -9639,24 +9755,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>191</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>464</v>
-      </c>
       <c r="D98" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E98" s="1">
         <v>24</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>195</v>
@@ -9680,10 +9796,10 @@
         <v>6</v>
       </c>
       <c r="T98" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U98" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
@@ -9701,18 +9817,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>210</v>
       </c>
       <c r="B99" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>469</v>
-      </c>
       <c r="D99" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E99" s="1">
         <v>15</v>
@@ -9742,10 +9858,10 @@
         <v>2</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
@@ -9763,18 +9879,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>217</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>472</v>
-      </c>
       <c r="D100" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E100" s="1">
         <v>32</v>
@@ -9783,7 +9899,7 @@
         <v>194</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -9825,27 +9941,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>217</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>475</v>
-      </c>
       <c r="D101" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E101" s="1">
         <v>16</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -9866,10 +9982,10 @@
         <v>1</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
@@ -9887,27 +10003,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>217</v>
       </c>
       <c r="B102" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>479</v>
-      </c>
       <c r="D102" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E102" s="1">
         <v>24</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -9928,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>197</v>
@@ -9949,18 +10065,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>217</v>
       </c>
       <c r="B103" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>483</v>
-      </c>
       <c r="D103" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -10003,27 +10119,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>217</v>
       </c>
       <c r="B104" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="D104" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E104" s="1">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="E104" s="1">
-        <v>12</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -10044,10 +10160,10 @@
         <v>1</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
@@ -10065,24 +10181,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>217</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>489</v>
-      </c>
       <c r="D105" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E105" s="1">
         <v>44</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>221</v>
@@ -10106,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>221</v>
@@ -10127,24 +10243,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>255</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>492</v>
-      </c>
       <c r="D106" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E106" s="1">
         <v>24</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>221</v>
@@ -10179,24 +10295,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>255</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>494</v>
-      </c>
       <c r="D107" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E107" s="1">
         <v>24</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>221</v>
@@ -10231,24 +10347,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>255</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>497</v>
-      </c>
       <c r="D108" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E108" s="1">
         <v>18</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>189</v>
@@ -10262,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>189</v>
@@ -10286,7 +10402,7 @@
         <v>3</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
@@ -10299,18 +10415,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>255</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>502</v>
-      </c>
       <c r="D109" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E109" s="1">
         <v>12</v>
@@ -10340,7 +10456,7 @@
         <v>1</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>258</v>
@@ -10361,24 +10477,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>255</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="D110" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110" s="1">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="E110" s="1">
-        <v>12</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>189</v>
@@ -10402,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U110" s="1" t="s">
         <v>107</v>
@@ -10423,24 +10539,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>255</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="C111" s="14" t="s">
-        <v>509</v>
-      </c>
       <c r="D111" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E111" s="1">
         <v>36</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>262</v>
@@ -10475,18 +10591,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>255</v>
       </c>
       <c r="B112" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>511</v>
-      </c>
       <c r="D112" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E112" s="1">
         <v>18</v>
@@ -10533,24 +10649,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>255</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C113" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C113" s="14" t="s">
-        <v>513</v>
-      </c>
       <c r="D113" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E113" s="1">
         <v>36</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>189</v>
@@ -10585,18 +10701,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>283</v>
       </c>
       <c r="B114" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>516</v>
-      </c>
       <c r="D114" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -10620,10 +10736,10 @@
         <v>2</v>
       </c>
       <c r="T114" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="U114" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="U114" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
@@ -10641,27 +10757,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>283</v>
       </c>
       <c r="B115" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>520</v>
-      </c>
       <c r="D115" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E115" s="1">
         <v>18</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -10682,10 +10798,10 @@
         <v>2</v>
       </c>
       <c r="T115" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U115" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="U115" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
@@ -10703,24 +10819,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>283</v>
       </c>
       <c r="B116" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>523</v>
-      </c>
       <c r="D116" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E116" s="1">
         <v>48</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>291</v>
@@ -10734,10 +10850,10 @@
         <v>1</v>
       </c>
       <c r="L116" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="N116" s="1">
         <v>0</v>
@@ -10765,18 +10881,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>283</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>528</v>
-      </c>
       <c r="D117" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E117" s="1">
         <v>54</v>
@@ -10785,7 +10901,7 @@
         <v>127</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -10806,7 +10922,7 @@
         <v>2</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U117" s="1" t="s">
         <v>72</v>
@@ -10827,24 +10943,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>283</v>
       </c>
       <c r="B118" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>532</v>
-      </c>
       <c r="D118" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E118" s="1">
         <v>6</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>291</v>
@@ -10872,7 +10988,7 @@
         <v>3</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
@@ -10887,24 +11003,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>313</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>536</v>
-      </c>
       <c r="D119" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E119" s="1">
         <v>22</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>195</v>
@@ -10918,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>195</v>
@@ -10938,10 +11054,10 @@
         <v>2</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
@@ -10959,18 +11075,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -10984,10 +11100,10 @@
         <v>1</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N120" s="1">
         <v>0</v>
@@ -11004,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
@@ -11023,27 +11139,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E121" s="1">
+        <v>12</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="G121" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="E121" s="1">
-        <v>12</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -11054,10 +11170,10 @@
         <v>1</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N121" s="1">
         <v>0</v>
@@ -11085,27 +11201,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E122" s="1">
         <v>6</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -11130,7 +11246,7 @@
         <v>3</v>
       </c>
       <c r="Z122" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
@@ -11143,27 +11259,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E123" s="1">
         <v>18</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -11184,10 +11300,10 @@
         <v>1</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
@@ -11205,18 +11321,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E124" s="1">
         <v>12</v>
@@ -11246,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="U124" s="1" t="s">
         <v>291</v>
@@ -11267,27 +11383,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="17.100000000000001" customHeight="1">
+    <row r="125" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E125" s="1">
         <v>24</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -11298,10 +11414,10 @@
         <v>1</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N125" s="1">
         <v>0</v>
@@ -11329,6 +11445,432 @@
         <v>1</v>
       </c>
     </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>558</v>
+      </c>
+      <c r="B126" t="s">
+        <v>559</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="1">
+        <v>18</v>
+      </c>
+      <c r="F126" t="s">
+        <v>561</v>
+      </c>
+      <c r="G126" t="s">
+        <v>189</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>12</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>561</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>7</v>
+      </c>
+      <c r="P126">
+        <v>12</v>
+      </c>
+      <c r="AH126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>558</v>
+      </c>
+      <c r="B127" t="s">
+        <v>562</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="1">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>564</v>
+      </c>
+      <c r="G127" t="s">
+        <v>262</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>12</v>
+      </c>
+      <c r="Q127">
+        <v>18</v>
+      </c>
+      <c r="R127">
+        <v>3</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127" t="s">
+        <v>565</v>
+      </c>
+      <c r="U127" t="s">
+        <v>72</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>12</v>
+      </c>
+      <c r="X127" s="22"/>
+      <c r="AH127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>558</v>
+      </c>
+      <c r="B128" t="s">
+        <v>566</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="D128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="1">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
+        <v>568</v>
+      </c>
+      <c r="G128" t="s">
+        <v>262</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>12</v>
+      </c>
+      <c r="Q128">
+        <v>18</v>
+      </c>
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
+      <c r="T128" t="s">
+        <v>568</v>
+      </c>
+      <c r="U128" t="s">
+        <v>262</v>
+      </c>
+      <c r="V128">
+        <v>7</v>
+      </c>
+      <c r="W128">
+        <v>12</v>
+      </c>
+      <c r="X128" s="22"/>
+      <c r="AH128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>558</v>
+      </c>
+      <c r="B129" t="s">
+        <v>569</v>
+      </c>
+      <c r="C129" t="s">
+        <v>570</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="1">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>571</v>
+      </c>
+      <c r="G129" t="s">
+        <v>221</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>12</v>
+      </c>
+      <c r="J129">
+        <v>18</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>571</v>
+      </c>
+      <c r="M129" t="s">
+        <v>221</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>12</v>
+      </c>
+      <c r="AH129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>558</v>
+      </c>
+      <c r="B130" t="s">
+        <v>572</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="1">
+        <v>36</v>
+      </c>
+      <c r="F130" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" t="s">
+        <v>262</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>12</v>
+      </c>
+      <c r="Q130">
+        <v>12</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130" t="s">
+        <v>39</v>
+      </c>
+      <c r="U130" t="s">
+        <v>262</v>
+      </c>
+      <c r="V130">
+        <v>10</v>
+      </c>
+      <c r="W130">
+        <v>12</v>
+      </c>
+      <c r="X130" s="22"/>
+      <c r="AH130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>558</v>
+      </c>
+      <c r="B131" t="s">
+        <v>574</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="D131" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="1">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>131</v>
+      </c>
+      <c r="G131" t="s">
+        <v>576</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="Q131">
+        <v>12</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131" t="s">
+        <v>577</v>
+      </c>
+      <c r="U131" t="s">
+        <v>576</v>
+      </c>
+      <c r="V131">
+        <v>1</v>
+      </c>
+      <c r="W131">
+        <v>6</v>
+      </c>
+      <c r="AH131">
+        <f t="shared" ref="AH131:AH133" si="2">IF(E131&gt;=J131,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>558</v>
+      </c>
+      <c r="B132" t="s">
+        <v>578</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="D132" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="1">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>277</v>
+      </c>
+      <c r="G132" t="s">
+        <v>189</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>6</v>
+      </c>
+      <c r="X132">
+        <v>48</v>
+      </c>
+      <c r="Y132">
+        <v>4</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA132">
+        <v>1</v>
+      </c>
+      <c r="AB132">
+        <v>12</v>
+      </c>
+      <c r="AH132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>558</v>
+      </c>
+      <c r="B133" t="s">
+        <v>580</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="1">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>564</v>
+      </c>
+      <c r="G133" t="s">
+        <v>258</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>12</v>
+      </c>
+      <c r="X133">
+        <v>48</v>
+      </c>
+      <c r="Y133">
+        <v>4</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA133">
+        <v>1</v>
+      </c>
+      <c r="AB133">
+        <v>12</v>
+      </c>
+      <c r="AH133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E134" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE47" xr:uid="{4B635DBB-4ED3-4B07-ABED-5A79F5874AFB}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE125">
@@ -11349,24 +11891,24 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -11377,7 +11919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -11388,7 +11930,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -11399,7 +11941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -11410,7 +11952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -11421,7 +11963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -11432,9 +11974,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11443,9 +11985,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11454,9 +11996,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11465,9 +12007,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11476,9 +12018,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11487,9 +12029,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11498,9 +12040,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11509,9 +12051,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -11520,9 +12062,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -11531,9 +12073,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -11542,9 +12084,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11553,9 +12095,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -11564,9 +12106,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11575,9 +12117,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -11586,9 +12128,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -11597,9 +12139,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -11608,9 +12150,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11619,9 +12161,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -11630,9 +12172,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -11641,9 +12183,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11652,9 +12194,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11663,9 +12205,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11681,15 +12223,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A1E3E-FD3C-499D-AB50-9AA283081EC1}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11697,31 +12239,31 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -11747,7 +12289,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I13" si="0">(C2-1)*20+(D2-1)*4+(E2-1)</f>
+        <f t="shared" ref="I2:I16" si="0">(C2-1)*20+(D2-1)*4+(E2-1)</f>
         <v>10</v>
       </c>
       <c r="J2">
@@ -11755,7 +12297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -11785,11 +12327,11 @@
         <v>30</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="1">(F3-1)*20+(G3-1)*4+H3</f>
+        <f t="shared" ref="J3:J16" si="1">(F3-1)*20+(G3-1)*4+H3</f>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -11823,7 +12365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11857,7 +12399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -11891,7 +12433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11925,7 +12467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -11959,7 +12501,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -11993,7 +12535,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -12027,7 +12569,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -12061,7 +12603,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -12095,7 +12637,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -12129,7 +12671,110 @@
         <v>232</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12139,44 +12784,44 @@
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -12210,7 +12855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -12244,7 +12889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -12278,7 +12923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -12312,7 +12957,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -12346,7 +12991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -12380,7 +13025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -12414,7 +13059,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -12448,7 +13093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -12482,7 +13127,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -12516,7 +13161,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -12550,7 +13195,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -12584,7 +13229,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -12618,7 +13263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -12652,7 +13297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -12686,7 +13331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -12720,7 +13365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -12754,7 +13399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -12788,7 +13433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -12822,7 +13467,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>268</v>
       </c>
@@ -12856,7 +13501,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -12890,7 +13535,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -12924,7 +13569,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>268</v>
       </c>
@@ -12958,7 +13603,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -12992,7 +13637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -13026,7 +13671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -13060,7 +13705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -13094,7 +13739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -13128,7 +13773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -13162,7 +13807,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -13196,7 +13841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -13230,7 +13875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -13264,7 +13909,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -13298,7 +13943,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -13332,7 +13977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -13366,7 +14011,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -13400,7 +14045,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -13434,7 +14079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -13468,7 +14113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -13502,7 +14147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -13536,7 +14181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -13570,7 +14215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -13604,7 +14249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -13638,7 +14283,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -13672,7 +14317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -13706,7 +14351,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -13740,7 +14385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -13774,7 +14419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -13808,9 +14453,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -13842,9 +14487,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -13876,9 +14521,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -13910,9 +14555,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
@@ -13944,9 +14589,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -13978,9 +14623,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -14012,9 +14657,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
@@ -14046,9 +14691,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
@@ -14080,9 +14725,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
@@ -14114,9 +14759,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -14148,9 +14793,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -14182,9 +14827,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -14216,9 +14861,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -14250,9 +14895,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -14284,9 +14929,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -14318,9 +14963,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -14352,9 +14997,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -14386,9 +15031,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -14420,9 +15065,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -14454,9 +15099,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -14488,9 +15133,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -14522,9 +15167,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
@@ -14556,9 +15201,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
@@ -14590,9 +15235,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
@@ -14624,7 +15269,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -14658,7 +15303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>54</v>
       </c>
@@ -14692,7 +15337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -14726,7 +15371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -14760,7 +15405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -14794,7 +15439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -14828,7 +15473,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -14862,7 +15507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -14896,7 +15541,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -14930,7 +15575,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -14964,7 +15609,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -14998,7 +15643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -15032,7 +15677,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -15066,7 +15711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>115</v>
       </c>
@@ -15100,7 +15745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -15134,7 +15779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -15168,7 +15813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -15202,7 +15847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -15236,7 +15881,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -15270,7 +15915,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -15304,7 +15949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -15338,7 +15983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -15372,7 +16017,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -15406,7 +16051,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -15440,7 +16085,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -15474,7 +16119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -15508,7 +16153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -15542,7 +16187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -15576,7 +16221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -15610,7 +16255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>153</v>
       </c>
@@ -15644,7 +16289,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -15678,7 +16323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -15712,7 +16357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -15746,7 +16391,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>153</v>
       </c>
@@ -15780,7 +16425,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -15814,7 +16459,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -15848,7 +16493,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -15882,7 +16527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>201</v>
       </c>
@@ -15916,7 +16561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>201</v>
       </c>
@@ -15950,7 +16595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>201</v>
       </c>
@@ -15984,7 +16629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -16018,7 +16663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>201</v>
       </c>
@@ -16052,7 +16697,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>201</v>
       </c>
@@ -16086,7 +16731,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>201</v>
       </c>
@@ -16120,7 +16765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>201</v>
       </c>
@@ -16154,7 +16799,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -16188,7 +16833,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>201</v>
       </c>
@@ -16222,7 +16867,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>201</v>
       </c>
@@ -16256,9 +16901,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B122" t="s">
         <v>38</v>
@@ -16290,9 +16935,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B123" t="s">
         <v>38</v>
@@ -16324,9 +16969,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B124" t="s">
         <v>38</v>
@@ -16358,9 +17003,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B125" t="s">
         <v>38</v>
@@ -16392,9 +17037,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B126" t="s">
         <v>38</v>
@@ -16426,9 +17071,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B127" t="s">
         <v>38</v>
@@ -16460,9 +17105,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B128" t="s">
         <v>38</v>
@@ -16494,9 +17139,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B129" t="s">
         <v>38</v>
@@ -16528,9 +17173,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B130" t="s">
         <v>38</v>
@@ -16562,9 +17207,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B131" t="s">
         <v>38</v>
@@ -16596,9 +17241,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B132" t="s">
         <v>38</v>
@@ -16630,9 +17275,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B133" t="s">
         <v>38</v>
@@ -16678,39 +17323,39 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -16718,10 +17363,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -16736,7 +17381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -16744,10 +17389,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -16762,7 +17407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -16770,10 +17415,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -16788,7 +17433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -16796,10 +17441,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="D5" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -16814,18 +17459,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -16840,18 +17485,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -16866,7 +17511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -16874,10 +17519,10 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="D8" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -16892,7 +17537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -16900,10 +17545,10 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -16918,7 +17563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -16926,10 +17571,10 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16944,7 +17589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -16952,10 +17597,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -16970,18 +17615,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="D12" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17009,34 +17654,34 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -17044,10 +17689,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17056,7 +17701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -17064,10 +17709,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17076,7 +17721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -17084,10 +17729,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17096,7 +17741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -17104,10 +17749,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="D5" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -17116,18 +17761,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -17136,18 +17781,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -17156,7 +17801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -17164,10 +17809,10 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="D8" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -17176,7 +17821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -17184,10 +17829,10 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -17196,7 +17841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -17204,10 +17849,10 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -17216,7 +17861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -17224,10 +17869,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -17236,18 +17881,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="D12" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17269,9 +17914,9 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -17279,33 +17924,33 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -17337,12 +17982,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3">
         <v>4</v>

--- a/data/datasetFinal.xlsx
+++ b/data/datasetFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriandubois/Documents/GitHub/Horraire-Polytech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FE8CC8-66C5-A347-B29D-A32AC732F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F764A5F0-AD9B-0B42-9BF2-C8C101FF2AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="15960" tabRatio="589" activeTab="2" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="15960" tabRatio="589" activeTab="1" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
   </bookViews>
   <sheets>
     <sheet name="TFE" sheetId="11" r:id="rId1"/>
@@ -2247,157 +2247,157 @@
     <t>totalStudents</t>
   </si>
   <si>
-    <t>MA1-CHSDM.PEE</t>
-  </si>
-  <si>
-    <t>MA1-CHSDM.GM</t>
-  </si>
-  <si>
-    <t>MA1-ELEC-FS AI &amp; SC</t>
-  </si>
-  <si>
-    <t>MA1-ELEC-FS EE &amp; SG</t>
-  </si>
-  <si>
-    <t>MA1-ELEC-FS SigSys</t>
-  </si>
-  <si>
-    <t>MA1-MECA-FS CP</t>
-  </si>
-  <si>
-    <t>MA1-MECA-FS GE</t>
-  </si>
-  <si>
-    <t>MA1-MECA- FS Mécatro</t>
-  </si>
-  <si>
-    <t>MA1 - MECA - SMACCS</t>
+    <t>weekStart</t>
+  </si>
+  <si>
+    <t>dayStart</t>
+  </si>
+  <si>
+    <t>slotStart</t>
+  </si>
+  <si>
+    <t>weekEnd</t>
+  </si>
+  <si>
+    <t>dayEnd</t>
+  </si>
+  <si>
+    <t>slotEnd</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Zangara G</t>
+  </si>
+  <si>
+    <t>Dumont E</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>I-MARO-121</t>
+  </si>
+  <si>
+    <t>Ch.1</t>
+  </si>
+  <si>
+    <t>I-ILIA-100</t>
+  </si>
+  <si>
+    <t>I-MRDV-120</t>
+  </si>
+  <si>
+    <t>I-MARO-120</t>
+  </si>
+  <si>
+    <t>I-POLY-012</t>
+  </si>
+  <si>
+    <t>V-LANG-161</t>
+  </si>
+  <si>
+    <t>I-SDMA-120</t>
+  </si>
+  <si>
+    <t>Ch.2</t>
+  </si>
+  <si>
+    <t>I-SDMA-121</t>
+  </si>
+  <si>
+    <t>I-MANA-102</t>
+  </si>
+  <si>
+    <t>V-LANG-162</t>
+  </si>
+  <si>
+    <t>I-TRMO-120</t>
+  </si>
+  <si>
+    <t>Com Fr</t>
+  </si>
+  <si>
+    <t>1er mai</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>MA1_CHSDM.PEE</t>
+  </si>
+  <si>
+    <t>MA1_CHSDM.GM</t>
+  </si>
+  <si>
+    <t>MA1_ELEC-FS AI &amp; SC</t>
+  </si>
+  <si>
+    <t>MA1_ELEC-FS EE &amp; SG</t>
+  </si>
+  <si>
+    <t>MA1_ELEC-FS SigSys</t>
+  </si>
+  <si>
+    <t>MA1_MECA-FS CP</t>
+  </si>
+  <si>
+    <t>MA1_MECA-FS GE</t>
+  </si>
+  <si>
+    <t>MA1_MECA- FS Mécatro</t>
+  </si>
+  <si>
+    <t>MA1_MECA - SMACCS</t>
   </si>
   <si>
     <t>MA1_MIN</t>
   </si>
   <si>
-    <t>MA2-CHSDM.PEE</t>
-  </si>
-  <si>
-    <t>MA2-CHSDM.GM</t>
-  </si>
-  <si>
-    <t>MA2-ELEC-FS AI &amp; SC</t>
-  </si>
-  <si>
-    <t>MA2-ELEC-FS EE &amp; SG</t>
-  </si>
-  <si>
-    <t>MA2-ELEC-FS SigSys</t>
+    <t>MA2_CHSDM.PEE</t>
+  </si>
+  <si>
+    <t>MA2_CHSDM.GM</t>
+  </si>
+  <si>
+    <t>MA2_ELEC-FS AI &amp; SC</t>
+  </si>
+  <si>
+    <t>MA2_ELEC-FS EE &amp; SG</t>
+  </si>
+  <si>
+    <t>MA2_ELEC-FS SigSys</t>
   </si>
   <si>
     <t>MA2_IG</t>
   </si>
   <si>
-    <t>MA2-MECA-FS CP</t>
-  </si>
-  <si>
-    <t>MA2-MECA-FS GE</t>
-  </si>
-  <si>
-    <t>MA2-MECA- FS Mécatro</t>
+    <t>MA2_MECA-FS CP</t>
+  </si>
+  <si>
+    <t>MA2_MECA-FS GE</t>
+  </si>
+  <si>
+    <t>MA2_MECA- FS Mécatro</t>
   </si>
   <si>
     <t>MA2_MIN</t>
-  </si>
-  <si>
-    <t>weekStart</t>
-  </si>
-  <si>
-    <t>dayStart</t>
-  </si>
-  <si>
-    <t>slotStart</t>
-  </si>
-  <si>
-    <t>weekEnd</t>
-  </si>
-  <si>
-    <t>dayEnd</t>
-  </si>
-  <si>
-    <t>slotEnd</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>Zangara G</t>
-  </si>
-  <si>
-    <t>Dumont E</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>slot</t>
-  </si>
-  <si>
-    <t>I-MARO-121</t>
-  </si>
-  <si>
-    <t>Ch.1</t>
-  </si>
-  <si>
-    <t>I-ILIA-100</t>
-  </si>
-  <si>
-    <t>I-MRDV-120</t>
-  </si>
-  <si>
-    <t>I-MARO-120</t>
-  </si>
-  <si>
-    <t>I-POLY-012</t>
-  </si>
-  <si>
-    <t>V-LANG-161</t>
-  </si>
-  <si>
-    <t>I-SDMA-120</t>
-  </si>
-  <si>
-    <t>Ch.2</t>
-  </si>
-  <si>
-    <t>I-SDMA-121</t>
-  </si>
-  <si>
-    <t>I-MANA-102</t>
-  </si>
-  <si>
-    <t>V-LANG-162</t>
-  </si>
-  <si>
-    <t>I-TRMO-120</t>
-  </si>
-  <si>
-    <t>Com Fr</t>
-  </si>
-  <si>
-    <t>1er mai</t>
-  </si>
-  <si>
-    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -3034,7 +3034,7 @@
   <dimension ref="A1:AI134"/>
   <sheetViews>
     <sheetView zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R57" sqref="R57"/>
@@ -11887,8 +11887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3B9CBA-18FB-49B9-8E60-DFBF3B5515D4}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -12141,7 +12141,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -12152,7 +12152,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -12225,7 +12225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71A1E3E-FD3C-499D-AB50-9AA283081EC1}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -12239,28 +12239,28 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12744,7 +12744,7 @@
         <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -12791,34 +12791,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -14863,7 +14863,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -14931,7 +14931,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -14965,7 +14965,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
@@ -15237,7 +15237,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B122" t="s">
         <v>38</v>
@@ -16937,7 +16937,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B123" t="s">
         <v>38</v>
@@ -16971,7 +16971,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B124" t="s">
         <v>38</v>
@@ -17005,7 +17005,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B125" t="s">
         <v>38</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s">
         <v>38</v>
@@ -17073,7 +17073,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B127" t="s">
         <v>38</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s">
         <v>38</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B129" t="s">
         <v>38</v>
@@ -17175,7 +17175,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B130" t="s">
         <v>38</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B131" t="s">
         <v>38</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B132" t="s">
         <v>38</v>
@@ -17277,7 +17277,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B133" t="s">
         <v>38</v>
@@ -17331,28 +17331,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -17363,10 +17363,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D2" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17389,10 +17389,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17415,10 +17415,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="D4" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17441,10 +17441,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -17467,10 +17467,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -17487,16 +17487,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -17519,10 +17519,10 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="D8" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -17545,10 +17545,10 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="D9" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -17571,10 +17571,10 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="D10" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -17597,10 +17597,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D11" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -17617,16 +17617,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D12" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17662,22 +17662,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="G1" s="18"/>
     </row>
@@ -17689,10 +17689,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D2" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17709,10 +17709,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17729,10 +17729,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="D4" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17749,10 +17749,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -17769,10 +17769,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -17783,16 +17783,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -17809,10 +17809,10 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="D8" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -17829,10 +17829,10 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="D9" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -17849,10 +17849,10 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="D10" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -17869,10 +17869,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D11" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -17883,16 +17883,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D12" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17924,33 +17924,33 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -17984,7 +17984,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="B3" t="s">
         <v>350</v>

--- a/data/datasetFinal.xlsx
+++ b/data/datasetFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/floriandubois/Documents/GitHub/Horraire-Polytech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F764A5F0-AD9B-0B42-9BF2-C8C101FF2AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E238D4CC-B27E-DE45-9B87-2455D22A8E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="15960" tabRatio="589" activeTab="1" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="16920" tabRatio="589" xr2:uid="{CFDF16B8-0417-47BD-9E0F-F29B352C84DD}"/>
   </bookViews>
   <sheets>
     <sheet name="TFE" sheetId="11" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="636">
   <si>
     <t>cursus</t>
   </si>
@@ -2398,6 +2398,9 @@
   </si>
   <si>
     <t>MA2_MIN</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -3033,11 +3036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436D5779-576B-4D03-A998-370CA8906C1C}">
   <dimension ref="A1:AI134"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AF10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R57" sqref="R57"/>
+      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7154,7 +7157,9 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="R57" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -11887,9 +11892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3B9CBA-18FB-49B9-8E60-DFBF3B5515D4}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12226,7 +12229,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17320,7 +17323,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17643,6 +17646,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -17911,7 +17915,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
